--- a/src/ExcelsiorSyncfusion.Tests/ColumnAttributeTests.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/ColumnAttributeTests.Test.verified.xlsx
@@ -163,9 +163,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="14.41796875" customWidth="1"/>
+    <col min="3" max="3" width="16.41796875" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>

--- a/src/ExcelsiorSyncfusion.Tests/ColumnAttributeTests.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/ColumnAttributeTests.Test.verified.xlsx
@@ -50,10 +50,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0000"/>
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -135,7 +134,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>

--- a/src/ExcelsiorSyncfusion.Tests/ColumnAttributeTests.Test.verified.xlsx
+++ b/src/ExcelsiorSyncfusion.Tests/ColumnAttributeTests.Test.verified.xlsx
@@ -162,9 +162,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="16.41796875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
